--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_batch_size_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_batch_size_1.xlsx
@@ -12,71 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>activation</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>neurons</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>hidden_layers</t>
-  </si>
-  <si>
-    <t>CORRELATION</t>
-  </si>
-  <si>
-    <t>FISHER</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>Adagrad</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.4829167304498788</t>
-  </si>
-  <si>
-    <t>0.5267811333347467</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,97 +366,601 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_layers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORRELATION</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.2892120835244504</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.29770621327046637</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.19121363455768228</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.1935965587855462</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.08687728487028008</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.087096853548194</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.042182198179736737</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.042207243717707774</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.03681646943397994</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.03683311729952864</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.01945789645850547</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.019460352666167403</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-0.18168458351248074</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-0.18372422776341757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-0.15157897252788646</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-0.15275614598877713</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-0.14867353249088278</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-0.1497837112558396</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-0.07494015753776512</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-0.07508092081597761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-0.056437143713849024</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-0.056497178766611277</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_batch_size_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_batch_size_1.xlsx
@@ -454,12 +454,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2892120835244504</t>
+          <t>0.2892340498717793</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.29770621327046637</t>
+          <t>0.2977301848390877</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.19121363455768228</t>
+          <t>0.19121363435214725</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.1935965587855462</t>
+          <t>0.19359655857221109</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.08687728487028008</t>
+          <t>0.08687723029501525</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.087096853548194</t>
+          <t>0.08709679855788105</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.042182198179736737</t>
+          <t>0.042182222173292025</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.042207243717707774</t>
+          <t>0.0422072677540318</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.03681646943397994</t>
+          <t>0.036815247041901186</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.03683311729952864</t>
+          <t>0.036831893248361926</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.01945789645850547</t>
+          <t>0.019457882751752018</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.019460352666167403</t>
+          <t>0.01946033895422248</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.18168458351248074</t>
+          <t>-0.18168421396059253</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.18372422776341757</t>
+          <t>-0.18372384559649718</t>
         </is>
       </c>
     </row>
@@ -804,12 +804,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.15157897252788646</t>
+          <t>-0.15158625349339452</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.15275614598877713</t>
+          <t>-0.15276359818556115</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-0.14867353249088278</t>
+          <t>-0.14867425372748894</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.1497837112558396</t>
+          <t>-0.1497844487949562</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-0.07494015753776512</t>
+          <t>-0.0749401451388035</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-0.07508092081597761</t>
+          <t>-0.07508090834698984</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-0.056437143713849024</t>
+          <t>-0.05643714026617694</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-0.056497178766611277</t>
+          <t>-0.05649717530792275</t>
         </is>
       </c>
     </row>
